--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\2018-19 Test Plan for TAX,NI,Socttish Tax\201819 NI Test Data\Weekly Inputsheets\Weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIWeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIWeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>
@@ -221,6 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,49 +291,49 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -349,10 +350,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -387,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,7 +440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,7 +545,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -553,13 +554,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -569,7 +570,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -578,7 +579,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -587,7 +588,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -597,12 +598,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -633,7 +634,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -652,7 +653,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -664,7 +665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -673,10 +674,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -760,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -775,13 +776,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -790,10 +791,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="88.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="88.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,7 +820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
@@ -836,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -853,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
@@ -870,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>44</v>
       </c>
@@ -887,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>45</v>
       </c>
@@ -904,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>46</v>
       </c>
@@ -921,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>47</v>
       </c>
@@ -938,7 +939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
@@ -955,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>51</v>
       </c>
@@ -973,16 +974,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -991,19 +992,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45.75" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>48</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="5" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>48</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="8" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="9" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>48</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="10" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1361,15 +1362,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A10" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1378,19 +1379,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
@@ -1474,8 +1475,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\2018-19 Test Plan for TAX,NI,Socttish Tax\201819 NI Test Data\Weekly Inputsheets\Weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIWeeklyCat_B" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIWeeklyCat_B" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>FirstReportNameInApplication</t>
-  </si>
-  <si>
-    <t>TestResultExcelFilePath</t>
   </si>
   <si>
     <t>worksheetNo</t>
@@ -212,16 +209,12 @@
   </si>
   <si>
     <t>61,360.00</t>
-  </si>
-  <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201819\\201819 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,49 +284,49 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -350,10 +343,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -388,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,7 +538,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -554,13 +547,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -570,7 +563,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -579,7 +572,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -588,7 +581,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -598,12 +591,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -634,7 +627,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -653,7 +646,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -665,7 +658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -674,10 +667,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -761,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="60" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -776,25 +769,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="88.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="88.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -820,15 +813,15 @@
         <v>14</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
@@ -837,15 +830,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
@@ -854,15 +847,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>19</v>
@@ -871,15 +864,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
@@ -888,15 +881,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -905,15 +898,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
@@ -922,15 +915,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>19</v>
@@ -939,15 +932,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
@@ -956,15 +949,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
@@ -974,37 +967,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
+    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1033,365 +1025,334 @@
         <v>32</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="45.75" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="3" s="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="4" s="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="5" s="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="6" s="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="7" s="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="8" s="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="9" s="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="10" s="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A10"/>
+    <hyperlink ref="A2:A10" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1420,63 +1381,57 @@
         <v>32</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIWeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIWeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -215,6 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,49 +285,49 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -343,10 +344,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -381,7 +382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,7 +434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,7 +539,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -547,13 +548,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -563,7 +564,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -572,7 +573,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -581,7 +582,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -591,12 +592,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -627,7 +628,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -646,7 +647,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -658,7 +659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -667,10 +668,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -754,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -769,13 +770,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -784,10 +785,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="88.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="88.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -813,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
@@ -830,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
@@ -847,7 +848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -864,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
@@ -881,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>44</v>
       </c>
@@ -898,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
@@ -915,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
@@ -932,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -949,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
@@ -967,16 +968,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -985,18 +986,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45.75" r="2" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="5" s="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>47</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="8" s="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>47</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="9" s="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>47</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="10" s="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>47</v>
       </c>
@@ -1324,15 +1325,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A10" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
@@ -1341,18 +1342,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
@@ -1430,8 +1431,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>